--- a/grafik_APP_2023.xlsx
+++ b/grafik_APP_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\asistentski\mobilni prilojenia\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\hybrid-app-development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03AF28C-1178-4CB7-B2B9-CF485FF84E58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C9327A-BDB9-4805-806D-0F53606EE544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Хибридни МП" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -93,70 +93,73 @@
     <t>Въведение в инструментите GitHub, Kinvey и Postman</t>
   </si>
   <si>
-    <t>JS + jQuery</t>
-  </si>
-  <si>
     <t>jQuery mobile + jQuery</t>
   </si>
   <si>
     <t>Контролно</t>
   </si>
   <si>
-    <t>1) максимум 7 точки от направени тестове в платформата https://students-manager.site/Test
-2) максимум 7 точки от предадени домашни в платформата https://students-manager.site/Homework
+    <t>петък</t>
+  </si>
+  <si>
+    <t>14-17 април</t>
+  </si>
+  <si>
+    <t>петък и понеделник</t>
+  </si>
+  <si>
+    <t>20 февруари</t>
+  </si>
+  <si>
+    <t>понеделник</t>
+  </si>
+  <si>
+    <t>1 май</t>
+  </si>
+  <si>
+    <t>8 май</t>
+  </si>
+  <si>
+    <t>24 май</t>
+  </si>
+  <si>
+    <t>сряда</t>
+  </si>
+  <si>
+    <t>17 февруари - 28 април</t>
+  </si>
+  <si>
+    <t>Упражнение - вторник (четна) и четвъртък</t>
+  </si>
+  <si>
+    <t>Лекция - вторник</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> вторник (четна) и четвъртък</t>
+  </si>
+  <si>
+    <t>21.03.2023</t>
+  </si>
+  <si>
+    <t>1) максимум 7 точки от направени тестове в платформата https://students-manager.website/Test
+2) максимум 7 точки от предадени домашни в платформата https://students-manager.website/Homework
 3) максимум 3 точки от 1во контролно 
 4) максимум 3 точки от 2ро контролно 
-5) максимум 10 точки от полагане на "автоматизиран" изпит в платформата https://students-manager.site/Click 
+5) максимум 10 точки от полагане на "автоматизиран" изпит в платформата https://students-manager.website/Click 
 6) максимум 20 точки от курсов проект</t>
   </si>
   <si>
-    <t>петък</t>
-  </si>
-  <si>
-    <t>14-17 април</t>
-  </si>
-  <si>
-    <t>петък и понеделник</t>
-  </si>
-  <si>
-    <t>20 февруари</t>
-  </si>
-  <si>
-    <t>понеделник</t>
-  </si>
-  <si>
-    <t>1 май</t>
-  </si>
-  <si>
-    <t>8 май</t>
-  </si>
-  <si>
-    <t>24 май</t>
-  </si>
-  <si>
-    <t>сряда</t>
-  </si>
-  <si>
-    <t>17 февруари - 28 април</t>
-  </si>
-  <si>
-    <t>Упражнение - вторник (четна) и четвъртък</t>
-  </si>
-  <si>
-    <t>Лекция - вторник</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> вторник (четна) и четвъртък</t>
-  </si>
-  <si>
-    <t>21.03.2023</t>
+    <t>HTTP Basics - ас. Йорданов</t>
+  </si>
+  <si>
+    <t>React Native</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,13 +237,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -466,9 +462,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -504,13 +500,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -520,7 +513,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -529,7 +522,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -907,25 +900,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="118" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="48.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="49.1796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -933,300 +927,302 @@
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28">
+        <v>35</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27">
         <v>44985</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="27">
         <v>44987</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>1</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="38">
+      <c r="C4" s="28"/>
+      <c r="D4" s="37">
         <v>44980</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28">
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27">
         <v>44994</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="41">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
         <v>2</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="42">
         <v>44985</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>44985</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28">
+      <c r="G5" s="27"/>
+      <c r="H5" s="27">
         <v>44999</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="27">
         <v>45001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="42"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="37">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="36">
         <v>44987</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28">
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27">
         <v>45008</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="37.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>3</v>
       </c>
       <c r="B7" s="20">
         <v>44992</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="36">
+        <v>44994</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27">
+        <v>45013</v>
+      </c>
+      <c r="I7" s="27">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>4</v>
+      </c>
+      <c r="B8" s="42">
+        <v>44999</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="37">
-        <v>44994</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28">
-        <v>45013</v>
-      </c>
-      <c r="I7" s="28">
-        <v>45015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="41">
-        <v>4</v>
-      </c>
-      <c r="B8" s="43">
+      <c r="D8" s="36">
         <v>44999</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="37">
-        <v>44999</v>
-      </c>
       <c r="E8" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28">
+        <v>17</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27">
         <v>45022</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="42"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45" t="s">
+    <row r="9" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>45001</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28">
+      <c r="E9" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27">
         <v>45027</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="27">
         <v>45029</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>5</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="37">
+        <v>38</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="36">
         <v>45008</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28">
+      <c r="E10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27">
         <v>45036</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41">
+    <row r="11" spans="1:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
         <v>6</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="42">
         <v>45013</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>45013</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28">
+        <v>24</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27">
         <v>45041</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <v>45043</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="37">
+    <row r="12" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="36">
         <v>45015</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+      <c r="E12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>7</v>
       </c>
       <c r="B13" s="20">
         <v>45020</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="36">
         <v>45022</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="41">
+      <c r="E13" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
         <v>8</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="42">
         <v>45027</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>45027</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="42"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="37">
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="36">
         <v>45029</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>9</v>
       </c>
       <c r="B16" s="20">
         <v>45034</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>45036</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>10</v>
       </c>
       <c r="B17" s="20">
         <v>45041</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="36">
         <v>45041</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="37">
+      <c r="C18" s="29"/>
+      <c r="D18" s="36">
         <v>45043</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:40" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="22"/>
       <c r="G19"/>
       <c r="H19"/>
@@ -1263,16 +1259,16 @@
       <c r="AM19"/>
       <c r="AN19"/>
     </row>
-    <row r="20" spans="1:40" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:40" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="31"/>
+      <c r="D20" s="30"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21" s="13" t="s">
         <v>20</v>
@@ -1281,89 +1277,89 @@
       <c r="D21" s="15"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:40" ht="141.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>2</v>
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B30" s="5" t="s">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B31" s="5" t="s">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B32" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B32" s="26" t="s">
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="26" t="s">
+      <c r="C34" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1385,13 +1381,13 @@
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" tooltip="01. Въведение в JS" display="https://github.com/profjordanov/hybrid-app-development/tree/master/01. %D0%92%D1%8A%D0%B2%D0%B5%D0%B4%D0%B5%D0%BD%D0%B8%D0%B5 %D0%B2 JS" xr:uid="{AD87608A-333A-48FF-A49B-F5384A45204B}"/>
     <hyperlink ref="E6" r:id="rId2" tooltip="02. JS за напреднали" display="https://github.com/profjordanov/hybrid-app-development/tree/master/02. JS %D0%B7%D0%B0 %D0%BD%D0%B0%D0%BF%D1%80%D0%B5%D0%B4%D0%BD%D0%B0%D0%BB%D0%B8" xr:uid="{51BEC498-7158-4111-B411-02561AADA522}"/>
-    <hyperlink ref="E8" r:id="rId3" tooltip="03. Async JS" display="https://github.com/profjordanov/hybrid-app-development/tree/master/03. Async JS" xr:uid="{7E2483E2-8239-484C-A8CD-E61C3DB670F4}"/>
-    <hyperlink ref="E10" r:id="rId4" tooltip="04. Cordova jQuery" display="https://github.com/profjordanov/hybrid-app-development/tree/master/04. Cordova jQuery" xr:uid="{CAC17EB9-3D1C-4395-BB2B-F1A9DAE0269E}"/>
-    <hyperlink ref="E11" r:id="rId5" tooltip="05. Cordova Plugins" display="https://github.com/profjordanov/hybrid-app-development/tree/master/05. Cordova Plugins" xr:uid="{565C7528-53C0-4F86-A1F7-2F114D763B51}"/>
+    <hyperlink ref="E7" r:id="rId3" tooltip="03. Async JS" display="https://github.com/profjordanov/hybrid-app-development/tree/master/03. Async JS" xr:uid="{7E2483E2-8239-484C-A8CD-E61C3DB670F4}"/>
+    <hyperlink ref="E9" r:id="rId4" tooltip="04. Cordova jQuery" display="https://github.com/profjordanov/hybrid-app-development/tree/master/04. Cordova jQuery" xr:uid="{CAC17EB9-3D1C-4395-BB2B-F1A9DAE0269E}"/>
+    <hyperlink ref="E10" r:id="rId5" tooltip="05. Cordova Plugins" display="https://github.com/profjordanov/hybrid-app-development/tree/master/05. Cordova Plugins" xr:uid="{565C7528-53C0-4F86-A1F7-2F114D763B51}"/>
     <hyperlink ref="C16" r:id="rId6" tooltip="Workshop" display="https://github.com/profjordanov/hybrid-app-development/tree/master/Workshop" xr:uid="{9A19137E-5CE8-4BC0-B845-768A4B30C145}"/>
     <hyperlink ref="E16" r:id="rId7" tooltip="Workshop" display="https://github.com/profjordanov/hybrid-app-development/tree/master/Workshop" xr:uid="{E1AB4111-C1C6-47BF-A8F0-77ECD4870F84}"/>
-    <hyperlink ref="E14" r:id="rId8" tooltip="06. React" display="https://github.com/profjordanov/hybrid-app-development/tree/master/06. React" xr:uid="{AEEDE762-40EC-4680-875A-2C46F211FF28}"/>
-    <hyperlink ref="E15" r:id="rId9" tooltip="06. React" display="https://github.com/profjordanov/hybrid-app-development/tree/master/06. React" xr:uid="{4282F22F-9E99-4581-A413-9CC821803811}"/>
+    <hyperlink ref="E13" r:id="rId8" tooltip="06. React" display="https://github.com/profjordanov/hybrid-app-development/tree/master/06. React" xr:uid="{AEEDE762-40EC-4680-875A-2C46F211FF28}"/>
+    <hyperlink ref="E14" r:id="rId9" tooltip="06. React" display="https://github.com/profjordanov/hybrid-app-development/tree/master/06. React" xr:uid="{4282F22F-9E99-4581-A413-9CC821803811}"/>
   </hyperlinks>
   <pageMargins left="0.43307086614173229" right="0.31496062992125984" top="0.43307086614173229" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
@@ -1410,48 +1406,48 @@
       <selection activeCell="B3" sqref="B3:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C12" s="28"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C13" s="28"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C14" s="28"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C15" s="28"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="27"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="27">
         <v>45076</v>
       </c>
-      <c r="C16" s="28"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="28">
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="27">
         <v>45083</v>
       </c>
-      <c r="C17" s="28"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="28">
+      <c r="C17" s="27"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="27">
         <v>45090</v>
       </c>
-      <c r="C18" s="28"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C19" s="28"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C20" s="28"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="27"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/grafik_APP_2023.xlsx
+++ b/grafik_APP_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\hybrid-app-development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C9327A-BDB9-4805-806D-0F53606EE544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97151F5D-69DA-46AC-A9A9-50A4E906711C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -901,7 +901,7 @@
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="118" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/grafik_APP_2023.xlsx
+++ b/grafik_APP_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\hybrid-app-development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97151F5D-69DA-46AC-A9A9-50A4E906711C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B602CEE1-4F6A-43A9-805E-42D160977953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,10 +149,10 @@
 6) максимум 20 точки от курсов проект</t>
   </si>
   <si>
-    <t>HTTP Basics - ас. Йорданов</t>
-  </si>
-  <si>
     <t>React Native</t>
+  </si>
+  <si>
+    <t>Web Basics - ас. Йорданов</t>
   </si>
 </sst>
 </file>
@@ -901,7 +901,7 @@
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="118" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1009,7 @@
         <v>44992</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="36">
         <v>44994</v>
@@ -1167,7 +1167,7 @@
         <v>45029</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="27"/>
